--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X35 at 4200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X35 at 4200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="11940" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,24 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 4200</t>
-  </si>
-  <si>
-    <t>45w</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>75w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -153,10 +135,22 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 4200</t>
+  </si>
+  <si>
     <t>ABG @ rest</t>
   </si>
   <si>
-    <t>stop, max</t>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>75w</t>
+  </si>
+  <si>
+    <t>90w</t>
   </si>
   <si>
     <t>submax</t>
@@ -164,29 +158,378 @@
   <si>
     <t>submax 2</t>
   </si>
+  <si>
+    <t>stop, max</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -194,20 +537,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -215,6 +847,1210 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.03</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.69</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.67</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.26</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.13</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.46</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="935556920"/>
+        <c:axId val="826882458"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="935556920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826882458"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="826882458"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935556920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1930400" y="609600"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,21 +2334,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -534,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -593,57 +2429,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.92563657407407407</v>
+        <v>0.925636574074074</v>
       </c>
       <c r="C6">
         <v>91</v>
@@ -655,7 +2491,7 @@
         <v>5.36</v>
       </c>
       <c r="F6">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G6">
         <v>72</v>
@@ -691,12 +2527,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.92575231481481479</v>
+        <v>0.925752314814815</v>
       </c>
       <c r="C7">
         <v>92</v>
@@ -744,12 +2580,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.92586805555555562</v>
+        <v>0.925868055555556</v>
       </c>
       <c r="C8">
         <v>91</v>
@@ -797,15 +2633,15 @@
         <v>31</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.92598379629629635</v>
+        <v>0.925983796296296</v>
       </c>
       <c r="C9">
         <v>88</v>
@@ -853,12 +2689,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.92609953703703696</v>
+        <v>0.926099537037037</v>
       </c>
       <c r="C10">
         <v>91</v>
@@ -906,12 +2742,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.92621527777777779</v>
+        <v>0.926215277777778</v>
       </c>
       <c r="C11">
         <v>87</v>
@@ -920,7 +2756,7 @@
         <v>57</v>
       </c>
       <c r="E11">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="F11">
         <v>3.81</v>
@@ -959,12 +2795,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.92633101851851851</v>
+        <v>0.926331018518519</v>
       </c>
       <c r="C12">
         <v>93</v>
@@ -1012,12 +2848,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.92644675925925923</v>
+        <v>0.926446759259259</v>
       </c>
       <c r="C13">
         <v>90</v>
@@ -1065,12 +2901,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.92656250000000007</v>
+        <v>0.9265625</v>
       </c>
       <c r="C14">
         <v>88</v>
@@ -1118,12 +2954,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.92667824074074068</v>
+        <v>0.926678240740741</v>
       </c>
       <c r="C15">
         <v>87</v>
@@ -1171,12 +3007,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.92679398148148151</v>
+        <v>0.926793981481482</v>
       </c>
       <c r="C16">
         <v>86</v>
@@ -1185,7 +3021,7 @@
         <v>57</v>
       </c>
       <c r="E16">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="F16">
         <v>3.81</v>
@@ -1224,12 +3060,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.92690972222222223</v>
+        <v>0.926909722222222</v>
       </c>
       <c r="C17">
         <v>85</v>
@@ -1277,12 +3113,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.92702546296296295</v>
+        <v>0.927025462962963</v>
       </c>
       <c r="C18">
         <v>84</v>
@@ -1330,12 +3166,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.92714120370370379</v>
+        <v>0.927141203703704</v>
       </c>
       <c r="C19">
         <v>83</v>
@@ -1383,12 +3219,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.9272569444444444</v>
+        <v>0.927256944444444</v>
       </c>
       <c r="C20">
         <v>84</v>
@@ -1436,12 +3272,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.92737268518518512</v>
+        <v>0.927372685185185</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -1489,75 +3325,75 @@
         <v>34</v>
       </c>
       <c r="S21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U21" s="2">
-        <f>AVERAGE(C6:C22)</f>
-        <v>86.941176470588232</v>
+        <f t="shared" ref="U21:AI21" si="0">AVERAGE(C6:C22)</f>
+        <v>86.9411764705882</v>
       </c>
       <c r="V21" s="2">
-        <f>AVERAGE(D6:D22)</f>
-        <v>57.176470588235297</v>
+        <f t="shared" si="0"/>
+        <v>57.1764705882353</v>
       </c>
       <c r="W21" s="2">
-        <f>AVERAGE(E6:E22)</f>
-        <v>5.0429411764705883</v>
+        <f t="shared" si="0"/>
+        <v>5.04294117647059</v>
       </c>
       <c r="X21" s="2">
-        <f>AVERAGE(F6:F22)</f>
-        <v>3.8582352941176472</v>
+        <f t="shared" si="0"/>
+        <v>3.85823529411765</v>
       </c>
       <c r="Y21" s="2">
-        <f>AVERAGE(G6:G22)</f>
-        <v>71.411764705882348</v>
+        <f t="shared" si="0"/>
+        <v>71.4117647058823</v>
       </c>
       <c r="Z21" s="2">
-        <f>AVERAGE(H6:H22)</f>
-        <v>410.11764705882354</v>
+        <f t="shared" si="0"/>
+        <v>410.117647058824</v>
       </c>
       <c r="AA21" s="2">
-        <f>AVERAGE(I6:I22)</f>
-        <v>187.35294117647058</v>
+        <f t="shared" si="0"/>
+        <v>187.352941176471</v>
       </c>
       <c r="AB21" s="2">
-        <f>AVERAGE(J6:J22)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="AC21" s="2">
-        <f>AVERAGE(K6:K22)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="AD21" s="2">
-        <f>AVERAGE(L6:L22)</f>
-        <v>79.529411764705884</v>
+        <f t="shared" si="0"/>
+        <v>79.5294117647059</v>
       </c>
       <c r="AE21" s="2">
-        <f>AVERAGE(M6:M22)</f>
-        <v>1120.7647058823529</v>
+        <f t="shared" si="0"/>
+        <v>1120.76470588235</v>
       </c>
       <c r="AF21" s="2">
-        <f>AVERAGE(N6:N22)</f>
-        <v>1464.3529411764705</v>
+        <f t="shared" si="0"/>
+        <v>1464.35294117647</v>
       </c>
       <c r="AG21" s="2">
-        <f>AVERAGE(O6:O22)</f>
-        <v>3.7411764705882353</v>
+        <f t="shared" si="0"/>
+        <v>3.74117647058824</v>
       </c>
       <c r="AH21" s="2">
-        <f>AVERAGE(P6:P22)</f>
-        <v>82.588235294117652</v>
+        <f t="shared" si="0"/>
+        <v>82.5882352941177</v>
       </c>
       <c r="AI21" s="2">
-        <f>AVERAGE(Q6:Q22)</f>
-        <v>35.705882352941174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>35.7058823529412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.92748842592592595</v>
+        <v>0.927488425925926</v>
       </c>
       <c r="C22">
         <v>82</v>
@@ -1605,16 +3441,16 @@
         <v>39</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.92760416666666667</v>
+        <v>0.927604166666667</v>
       </c>
       <c r="C23">
         <v>93</v>
@@ -1626,7 +3462,7 @@
         <v>5.37</v>
       </c>
       <c r="F23">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="G23">
         <v>71</v>
@@ -1662,12 +3498,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.92771990740740751</v>
+        <v>0.927719907407408</v>
       </c>
       <c r="C24">
         <v>102</v>
@@ -1706,7 +3542,7 @@
         <v>1218</v>
       </c>
       <c r="O24">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="P24">
         <v>71</v>
@@ -1715,12 +3551,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.92783564814814812</v>
+        <v>0.927835648148148</v>
       </c>
       <c r="C25">
         <v>109</v>
@@ -1768,12 +3604,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.92795138888888884</v>
+        <v>0.927951388888889</v>
       </c>
       <c r="C26">
         <v>116</v>
@@ -1821,12 +3657,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.92806712962962967</v>
+        <v>0.92806712962963</v>
       </c>
       <c r="C27">
         <v>127</v>
@@ -1874,12 +3710,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.92818287037037039</v>
+        <v>0.92818287037037</v>
       </c>
       <c r="C28">
         <v>135</v>
@@ -1888,7 +3724,7 @@
         <v>66</v>
       </c>
       <c r="E28">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="F28">
         <v>6.86</v>
@@ -1927,12 +3763,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.92829861111111101</v>
+        <v>0.928298611111111</v>
       </c>
       <c r="C29">
         <v>137</v>
@@ -1980,12 +3816,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.92841435185185184</v>
+        <v>0.928414351851852</v>
       </c>
       <c r="C30">
         <v>144</v>
@@ -2033,12 +3869,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.92853009259259256</v>
+        <v>0.928530092592593</v>
       </c>
       <c r="C31">
         <v>150</v>
@@ -2086,12 +3922,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.92864583333333339</v>
+        <v>0.928645833333333</v>
       </c>
       <c r="C32">
         <v>152</v>
@@ -2139,12 +3975,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.92876157407407411</v>
+        <v>0.928761574074074</v>
       </c>
       <c r="C33">
         <v>154</v>
@@ -2153,7 +3989,7 @@
         <v>61</v>
       </c>
       <c r="E33">
-        <v>9.5399999999999991</v>
+        <v>9.54</v>
       </c>
       <c r="F33">
         <v>7.3</v>
@@ -2192,12 +4028,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.92887731481481473</v>
+        <v>0.928877314814815</v>
       </c>
       <c r="C34">
         <v>155</v>
@@ -2245,12 +4081,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.92899305555555556</v>
+        <v>0.928993055555556</v>
       </c>
       <c r="C35">
         <v>154</v>
@@ -2298,12 +4134,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.92910879629629628</v>
+        <v>0.929108796296296</v>
       </c>
       <c r="C36">
         <v>157</v>
@@ -2351,9 +4187,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
         <v>0.929224537037037</v>
@@ -2365,7 +4201,7 @@
         <v>64</v>
       </c>
       <c r="E37">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="F37">
         <v>7.75</v>
@@ -2404,12 +4240,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.92934027777777783</v>
+        <v>0.929340277777778</v>
       </c>
       <c r="C38">
         <v>158</v>
@@ -2457,12 +4293,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.92945601851851845</v>
+        <v>0.929456018518518</v>
       </c>
       <c r="C39">
         <v>160</v>
@@ -2471,7 +4307,7 @@
         <v>62</v>
       </c>
       <c r="E39">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="F39">
         <v>7.68</v>
@@ -2510,15 +4346,15 @@
         <v>36</v>
       </c>
       <c r="S39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.92957175925925928</v>
+        <v>0.929571759259259</v>
       </c>
       <c r="C40">
         <v>161</v>
@@ -2527,7 +4363,7 @@
         <v>62</v>
       </c>
       <c r="E40">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="F40">
         <v>7.68</v>
@@ -2566,9 +4402,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
         <v>0.9296875</v>
@@ -2580,7 +4416,7 @@
         <v>61</v>
       </c>
       <c r="E41">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="F41">
         <v>7.68</v>
@@ -2619,12 +4455,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.92980324074074072</v>
+        <v>0.929803240740741</v>
       </c>
       <c r="C42">
         <v>164</v>
@@ -2672,15 +4508,15 @@
         <v>33</v>
       </c>
       <c r="S42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.92991898148148155</v>
+        <v>0.929918981481482</v>
       </c>
       <c r="C43">
         <v>167</v>
@@ -2728,12 +4564,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.93003472222222217</v>
+        <v>0.930034722222222</v>
       </c>
       <c r="C44">
         <v>170</v>
@@ -2745,7 +4581,7 @@
         <v>11.17</v>
       </c>
       <c r="F44">
-        <v>8.5500000000000007</v>
+        <v>8.55</v>
       </c>
       <c r="G44">
         <v>72</v>
@@ -2772,7 +4608,7 @@
         <v>658</v>
       </c>
       <c r="O44">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="P44">
         <v>53</v>
@@ -2781,9 +4617,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
         <v>0.930150462962963</v>
@@ -2834,12 +4670,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.93026620370370372</v>
+        <v>0.930266203703704</v>
       </c>
       <c r="C46">
         <v>172</v>
@@ -2887,7 +4723,7 @@
         <v>36</v>
       </c>
       <c r="S46" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
@@ -2895,12 +4731,12 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.93038194444444444</v>
+        <v>0.930381944444444</v>
       </c>
       <c r="C47">
         <v>173</v>
@@ -2912,7 +4748,7 @@
         <v>11.69</v>
       </c>
       <c r="F47">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
       <c r="G47">
         <v>74</v>
@@ -2962,12 +4798,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.93049768518518527</v>
+        <v>0.930497685185185</v>
       </c>
       <c r="C48">
         <v>175</v>
@@ -3006,7 +4842,7 @@
         <v>615</v>
       </c>
       <c r="O48">
-        <v>8.8800000000000008</v>
+        <v>8.88</v>
       </c>
       <c r="P48">
         <v>59</v>
@@ -3015,12 +4851,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.93061342592592589</v>
+        <v>0.930613425925926</v>
       </c>
       <c r="C49">
         <v>175</v>
@@ -3068,12 +4904,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.93072916666666661</v>
+        <v>0.930729166666667</v>
       </c>
       <c r="C50">
         <v>176</v>
@@ -3121,12 +4957,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.93084490740740744</v>
+        <v>0.930844907407407</v>
       </c>
       <c r="C51">
         <v>176</v>
@@ -3138,7 +4974,7 @@
         <v>11.37</v>
       </c>
       <c r="F51">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="G51">
         <v>72</v>
@@ -3174,12 +5010,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.93096064814814816</v>
+        <v>0.930960648148148</v>
       </c>
       <c r="C52">
         <v>178</v>
@@ -3227,12 +5063,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.93107638888888899</v>
+        <v>0.931076388888889</v>
       </c>
       <c r="C53">
         <v>179</v>
@@ -3280,75 +5116,75 @@
         <v>40</v>
       </c>
       <c r="S53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U53" s="2">
-        <f>AVERAGE(C47:C53)</f>
+        <f t="shared" ref="U53:AI53" si="1">AVERAGE(C47:C53)</f>
         <v>176</v>
       </c>
       <c r="V53" s="2">
-        <f>AVERAGE(D47:D53)</f>
-        <v>65.571428571428569</v>
+        <f t="shared" si="1"/>
+        <v>65.5714285714286</v>
       </c>
       <c r="W53" s="2">
-        <f>AVERAGE(E47:E53)</f>
-        <v>11.651428571428569</v>
+        <f t="shared" si="1"/>
+        <v>11.6514285714286</v>
       </c>
       <c r="X53" s="2">
-        <f>AVERAGE(F47:F53)</f>
-        <v>8.918571428571429</v>
+        <f t="shared" si="1"/>
+        <v>8.91857142857143</v>
       </c>
       <c r="Y53" s="2">
-        <f>AVERAGE(G47:G53)</f>
-        <v>73.142857142857139</v>
+        <f t="shared" si="1"/>
+        <v>73.1428571428571</v>
       </c>
       <c r="Z53" s="2">
-        <f>AVERAGE(H47:H53)</f>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
       <c r="AA53" s="2">
-        <f>AVERAGE(I47:I53)</f>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="AB53" s="2">
-        <f>AVERAGE(J47:J53)</f>
-        <v>103.28571428571429</v>
+        <f t="shared" si="1"/>
+        <v>103.285714285714</v>
       </c>
       <c r="AC53" s="2">
-        <f>AVERAGE(K47:K53)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="AD53" s="2">
-        <f>AVERAGE(L47:L53)</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="AE53" s="2">
-        <f>AVERAGE(M47:M53)</f>
-        <v>483.71428571428572</v>
+        <f t="shared" si="1"/>
+        <v>483.714285714286</v>
       </c>
       <c r="AF53" s="2">
-        <f>AVERAGE(N47:N53)</f>
-        <v>632.28571428571433</v>
+        <f t="shared" si="1"/>
+        <v>632.285714285714</v>
       </c>
       <c r="AG53" s="2">
-        <f>AVERAGE(O47:O53)</f>
-        <v>8.6485714285714277</v>
+        <f t="shared" si="1"/>
+        <v>8.64857142857143</v>
       </c>
       <c r="AH53" s="2">
-        <f>AVERAGE(P47:P53)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="AI53" s="2">
-        <f>AVERAGE(Q47:Q53)</f>
-        <v>38.428571428571431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>38.4285714285714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.93119212962962961</v>
+        <v>0.93119212962963</v>
       </c>
       <c r="C54">
         <v>176</v>
@@ -3396,12 +5232,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.93130787037037033</v>
+        <v>0.93130787037037</v>
       </c>
       <c r="C55">
         <v>179</v>
@@ -3413,7 +5249,7 @@
         <v>11.26</v>
       </c>
       <c r="F55">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="G55">
         <v>71</v>
@@ -3449,12 +5285,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.93142361111111116</v>
+        <v>0.931423611111111</v>
       </c>
       <c r="C56">
         <v>179</v>
@@ -3502,75 +5338,75 @@
         <v>45</v>
       </c>
       <c r="S56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U56" s="2">
         <f>AVERAGE(C47:C56)</f>
         <v>176.6</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" ref="V56:AI56" si="0">AVERAGE(D47:D56)</f>
+        <f t="shared" ref="V56:AI56" si="2">AVERAGE(D47:D56)</f>
         <v>64</v>
       </c>
       <c r="W56" s="2">
-        <f t="shared" si="0"/>
-        <v>11.410999999999998</v>
+        <f t="shared" si="2"/>
+        <v>11.411</v>
       </c>
       <c r="X56" s="2">
-        <f t="shared" si="0"/>
-        <v>8.7349999999999994</v>
+        <f t="shared" si="2"/>
+        <v>8.735</v>
       </c>
       <c r="Y56" s="2">
-        <f t="shared" si="0"/>
-        <v>72.400000000000006</v>
+        <f t="shared" si="2"/>
+        <v>72.4</v>
       </c>
       <c r="Z56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190.6</v>
       </c>
       <c r="AA56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>199.7</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>103.5</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63.9</v>
       </c>
       <c r="AD56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>87.7</v>
       </c>
       <c r="AE56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>495.8</v>
       </c>
       <c r="AF56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>648</v>
       </c>
       <c r="AG56" s="2">
-        <f t="shared" si="0"/>
-        <v>8.4710000000000001</v>
+        <f t="shared" si="2"/>
+        <v>8.471</v>
       </c>
       <c r="AH56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.9</v>
       </c>
       <c r="AI56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.93153935185185188</v>
+        <v>0.931539351851852</v>
       </c>
       <c r="C57">
         <v>180</v>
@@ -3618,12 +5454,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.93165509259259249</v>
+        <v>0.931655092592592</v>
       </c>
       <c r="C58">
         <v>182</v>
@@ -3662,7 +5498,7 @@
         <v>659</v>
       </c>
       <c r="O58">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="P58">
         <v>49</v>
@@ -3671,12 +5507,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.93177083333333333</v>
+        <v>0.931770833333333</v>
       </c>
       <c r="C59">
         <v>182</v>
@@ -3724,75 +5560,75 @@
         <v>40</v>
       </c>
       <c r="S59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U59" s="2">
-        <f>AVERAGE(C47:C59)</f>
-        <v>177.69230769230768</v>
+        <f t="shared" ref="U59:AI59" si="3">AVERAGE(C47:C59)</f>
+        <v>177.692307692308</v>
       </c>
       <c r="V59" s="2">
-        <f>AVERAGE(D47:D59)</f>
-        <v>63.07692307692308</v>
+        <f t="shared" si="3"/>
+        <v>63.0769230769231</v>
       </c>
       <c r="W59" s="2">
-        <f>AVERAGE(E47:E59)</f>
-        <v>11.318461538461538</v>
+        <f t="shared" si="3"/>
+        <v>11.3184615384615</v>
       </c>
       <c r="X59" s="2">
-        <f>AVERAGE(F47:F59)</f>
-        <v>8.6638461538461531</v>
+        <f t="shared" si="3"/>
+        <v>8.66384615384615</v>
       </c>
       <c r="Y59" s="2">
-        <f>AVERAGE(G47:G59)</f>
-        <v>71.769230769230774</v>
+        <f t="shared" si="3"/>
+        <v>71.7692307692308</v>
       </c>
       <c r="Z59" s="2">
-        <f>AVERAGE(H47:H59)</f>
-        <v>195.53846153846155</v>
+        <f t="shared" si="3"/>
+        <v>195.538461538462</v>
       </c>
       <c r="AA59" s="2">
-        <f>AVERAGE(I47:I59)</f>
-        <v>192.30769230769232</v>
+        <f t="shared" si="3"/>
+        <v>192.307692307692</v>
       </c>
       <c r="AB59" s="2">
-        <f>AVERAGE(J47:J59)</f>
-        <v>103.46153846153847</v>
+        <f t="shared" si="3"/>
+        <v>103.461538461538</v>
       </c>
       <c r="AC59" s="2">
-        <f>AVERAGE(K47:K59)</f>
-        <v>63.92307692307692</v>
+        <f t="shared" si="3"/>
+        <v>63.9230769230769</v>
       </c>
       <c r="AD59" s="2">
-        <f>AVERAGE(L47:L59)</f>
-        <v>87.307692307692307</v>
+        <f t="shared" si="3"/>
+        <v>87.3076923076923</v>
       </c>
       <c r="AE59" s="2">
-        <f>AVERAGE(M47:M59)</f>
-        <v>499.61538461538464</v>
+        <f t="shared" si="3"/>
+        <v>499.615384615385</v>
       </c>
       <c r="AF59" s="2">
-        <f>AVERAGE(N47:N59)</f>
+        <f t="shared" si="3"/>
         <v>653</v>
       </c>
       <c r="AG59" s="2">
-        <f>AVERAGE(O47:O59)</f>
-        <v>8.4023076923076907</v>
+        <f t="shared" si="3"/>
+        <v>8.40230769230769</v>
       </c>
       <c r="AH59" s="2">
-        <f>AVERAGE(P47:P59)</f>
-        <v>53.53846153846154</v>
+        <f t="shared" si="3"/>
+        <v>53.5384615384615</v>
       </c>
       <c r="AI59" s="2">
-        <f>AVERAGE(Q47:Q59)</f>
-        <v>39.846153846153847</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>39.8461538461538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.93188657407407405</v>
+        <v>0.931886574074074</v>
       </c>
       <c r="C60">
         <v>177</v>
@@ -3801,7 +5637,7 @@
         <v>57</v>
       </c>
       <c r="E60">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="F60">
         <v>7.76</v>
@@ -3840,12 +5676,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.93200231481481488</v>
+        <v>0.932002314814815</v>
       </c>
       <c r="C61">
         <v>171</v>
@@ -3893,12 +5729,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>0.9321180555555556</v>
+        <v>0.932118055555556</v>
       </c>
       <c r="C62">
         <v>168</v>
@@ -3946,12 +5782,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>0.93223379629629621</v>
+        <v>0.932233796296296</v>
       </c>
       <c r="C63">
         <v>163</v>
@@ -3960,7 +5796,7 @@
         <v>60</v>
       </c>
       <c r="E63">
-        <v>9.9600000000000009</v>
+        <v>9.96</v>
       </c>
       <c r="F63">
         <v>7.62</v>
@@ -3999,36 +5835,46 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>